--- a/doc/FMS体质测试工时记录表.xlsx
+++ b/doc/FMS体质测试工时记录表.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gibson/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1200" windowWidth="28160" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="645" yWindow="1200" windowWidth="28155" windowHeight="15855" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>项目</t>
     <rPh sb="0" eb="1">
@@ -101,16 +96,68 @@
   <si>
     <t>根据测试结果对学生的体质进行评分</t>
   </si>
+  <si>
+    <t>生成成绩登记表PDF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于测试前打印，供教练现场记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出测试结果CSV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据德国系统样例数据格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试成绩录入功能调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括列表、编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生档案导入功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义导入规范，自动编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析德国的数据录入盒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得了数据库结构，同时调整了本项目的一些数据结构定义。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期理论验证系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论研究、设计分析、编码实现、环境部署</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,6 +166,20 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,13 +217,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -176,9 +234,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -445,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,21 +517,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
-    <col min="4" max="6" width="15.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="5" customWidth="1"/>
+    <col min="4" max="5" width="15.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,87 +552,198 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="37" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42247</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42291</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42297</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>42293</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>42302</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>42298</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E8" s="2">
         <v>42332</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
+    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4">
+      <c r="C9" s="1"/>
+      <c r="D9" s="3">
         <v>0.9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E9" s="2">
         <v>42332</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="55" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+    <row r="10" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
+    <row r="11" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="55" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
+    <row r="12" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/FMS体质测试工时记录表.xlsx
+++ b/doc/FMS体质测试工时记录表.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>项目</t>
     <rPh sb="0" eb="1">
@@ -55,97 +55,126 @@
     <t>预计工作量（人天）</t>
   </si>
   <si>
+    <t>体质测试系统部署</t>
+  </si>
+  <si>
+    <t>德国测试数据调整</t>
+  </si>
+  <si>
+    <t>改成和德国系统匹配的算法</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>体质测试系统加校验</t>
+  </si>
+  <si>
+    <t>体质测试系统数据完整性</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>待完成</t>
+  </si>
+  <si>
+    <t>增加一个“填写完成”状态（可打钩显示）,需要筛选出数据已经完整的学生</t>
+  </si>
+  <si>
+    <t>FMS评分模型</t>
+  </si>
+  <si>
+    <t>根据测试结果对学生的体质进行评分</t>
+  </si>
+  <si>
+    <t>生成成绩登记表PDF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于测试前打印，供教练现场记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出测试结果CSV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据德国系统样例数据格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试成绩录入功能调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括列表、编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生档案导入功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义导入规范，自动编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析德国的数据录入盒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得了数据库结构，同时调整了本项目的一些数据结构定义。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期理论验证系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论研究、设计分析、编码实现、环境部署</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移到mysql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前已在开发环境完整，待生产环境实施。
+Windows下安装Python依赖库mysqlclient时遇到了问题，最终解决。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>FMS青少年体质测试</t>
-  </si>
-  <si>
-    <t>体质测试系统部署</t>
-  </si>
-  <si>
-    <t>德国测试数据调整</t>
-  </si>
-  <si>
-    <t>改成和德国系统匹配的算法</t>
-  </si>
-  <si>
-    <t>修改</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>体质测试系统加校验</t>
-  </si>
-  <si>
-    <t>体质测试系统数据完整性</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>保存的时候保证数据的值在合理范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统权限设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一个User权限，给录入老师使用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>待完成</t>
-  </si>
-  <si>
-    <t>增加一个“填写完成”状态（可打钩显示）,需要筛选出数据已经完整的学生</t>
-  </si>
-  <si>
-    <t>FMS评分模型</t>
-  </si>
-  <si>
-    <t>根据测试结果对学生的体质进行评分</t>
-  </si>
-  <si>
-    <t>生成成绩登记表PDF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于测试前打印，供教练现场记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出测试结果CSV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据德国系统样例数据格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试成绩录入功能调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括列表、编辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生档案导入功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义导入规范，自动编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析德国的数据录入盒子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得了数据库结构，同时调整了本项目的一些数据结构定义。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前期理论验证系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论研究、设计分析、编码实现、环境部署</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存的时候保证数据的值在合理范围
+导出Excel标记存在错误数据的行（针对前期已录入数据）
+调整了两次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -213,11 +242,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -234,11 +300,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -549,141 +621,141 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>22</v>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>42247</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>31</v>
+      <c r="F2" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
+      <c r="A3" s="8"/>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>42291</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="7" t="s">
-        <v>26</v>
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>42297</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>27</v>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>24</v>
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>42293</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>25</v>
+      <c r="F5" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>42302</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>42298</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>0.5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2">
         <v>42332</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3">
@@ -693,54 +765,96 @@
         <v>42332</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>42335</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="69.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2">
+        <v>42342</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="C12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
+        <v>42341</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/FMS体质测试工时记录表.xlsx
+++ b/doc/FMS体质测试工时记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1200" windowWidth="28155" windowHeight="15855" tabRatio="500"/>
+    <workbookView xWindow="4185" yWindow="15" windowWidth="28155" windowHeight="15855" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>项目</t>
     <rPh sb="0" eb="1">
@@ -175,6 +175,141 @@
     <t>保存的时候保证数据的值在合理范围
 导出Excel标记存在错误数据的行（针对前期已录入数据）
 调整了两次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加标准值模型
+输入德国论文中的评价参数
+计算评分
+生成证书
+生成评价表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价表中添加测试日期数据列
+评价表中添加无法评分的学生记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价表中添加无法评分备注（原因）
+评价表中添加学生参加测试时的年龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换数据库为MySQL，并迁移数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加分布因素模型
+输入美国博士那边提供的评价参数
+计算评分
+评价表添加月龄数据列
+评价表添加身高、体重及BMI数据列
+生成两套评价参数下的评价表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正6分跑评价BUG
+评价表添加评价总分数据列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入2015年3月份测试数据及评价分值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加区县账户，并进行访问控制，只能查看本区数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整导入功能，使其可以接受多种编码格式，并且不受部署环境影响。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台应用框架构建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现前台功能，包括介绍页、登录、仪表盘、数据表、证书下载。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书插图替换为高清
+总成绩排名将优秀与正常合并排名
+提供选项证书下载
+直接登录，跳过介绍页
+2015年3月，总成绩排名前50均为优秀
+饼状图样式调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书与评分表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库更换为MySQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分表补充数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价表提供无法评分原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增评价体系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县用户访问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入2015年3月份数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强导入功能健壮性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台初步构建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加运动潜质数据项，及天赋优秀和需要干预标记项
+导入20160204德国给出的评价数据及运动潜质数据
+导入2015年3月评价的运动潜质数据
+将运动潜质信息输出在证书中
+附带：解决应用与操作系统时差问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加运动潜质信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加测试批次模型，并初始化数据
+重写证书生成，完善布局，从而协调美观。
+评价柱状图表完全用代码创建，以避免打印时骨架模糊的问题。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成美观的证书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现前台功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台微调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -311,6 +446,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -852,6 +990,244 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="10">
+        <v>42373</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="10">
+        <v>42382</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="10">
+        <v>42384</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="10">
+        <v>42385</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="10">
+        <v>42386</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="10">
+        <v>42388</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="10">
+        <v>42395</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="10">
+        <v>42396</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="10">
+        <v>42400</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="10">
+        <v>42401</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="B25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="10">
+        <v>42420</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="10">
+        <v>42431</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="10">
+        <v>42434</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="10">
+        <v>42444</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A14"/>
